--- a/data/Variable_Explanations_11-26.xlsx
+++ b/data/Variable_Explanations_11-26.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katharinarings/Desktop/Analytics Edge/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CCA0ED1-9511-9349-80B0-C0C9BC6F5709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB8E3E-C8CA-B043-9213-5145FB0BAA06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29200" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7220" yWindow="740" windowWidth="21980" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variable Explanations" sheetId="1" r:id="rId1"/>
+    <sheet name="Example observations" sheetId="3" r:id="rId2"/>
+    <sheet name="example observation" sheetId="2" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="273">
   <si>
     <t>Variable</t>
   </si>
@@ -624,21 +626,6 @@
 9—Cape Verdean 10—Guinean 11—Mozambican 12—Santomean 13—Turkish
 14—Brazilian 15—Romanian 16—Moldova (Republic of) 17—Mexican 18—Ukrainian 19—Russian
 20—Cuban 21—Colombian</t>
-  </si>
-  <si>
-    <t>1—1st phase—general contingent
-2—Ordinance No. 612/93
-3—1st phase—special contingent (Azores Island) 4—Holders of other higher courses
-5—Ordinance No. 854-B/99
-6—International student (bachelor)
-7—1st phase—special contingent (Madeira Island) 8—2nd phase—general contingent
-9—3rd phase—general contingent
-10—Ordinance No. 533-A/99, item b2) (Different Plan) 11—Ordinance No. 533-A/99, item b3 (Other Institution) 12—Over 23 years old
-13—Transfer
-14—Change in course
-15—Technological specialization diploma holders 16—Change in institution/course
-17—Short cycle diploma holders
-18—Change in institution/course (International)</t>
   </si>
   <si>
     <t>1—Biofuel Production Technologies 2—Animation and Multimedia Design 3—Social Service (evening attendance) 4—Agronomy
@@ -800,6 +787,269 @@
   <si>
     <t xml:space="preserve">The number of units that a student enrolls in but that are not being evaluated and graded </t>
   </si>
+  <si>
+    <t>Marital status</t>
+  </si>
+  <si>
+    <t>Application mode</t>
+  </si>
+  <si>
+    <t>Application order</t>
+  </si>
+  <si>
+    <t>Daytime/evening attendance</t>
+  </si>
+  <si>
+    <t>Previous qualification</t>
+  </si>
+  <si>
+    <t>Mother's qualification</t>
+  </si>
+  <si>
+    <t>Father's qualification</t>
+  </si>
+  <si>
+    <t>Mother's occupation</t>
+  </si>
+  <si>
+    <t>Father's occupation</t>
+  </si>
+  <si>
+    <t>Educational special needs</t>
+  </si>
+  <si>
+    <t>Tuition fees up to date</t>
+  </si>
+  <si>
+    <t>Scholarship holder</t>
+  </si>
+  <si>
+    <t>Age at enrollment</t>
+  </si>
+  <si>
+    <t>Curricular units 1st sem (credited)</t>
+  </si>
+  <si>
+    <t>Curricular units 1st sem (enrolled)</t>
+  </si>
+  <si>
+    <t>Curricular units 1st sem (evaluations)</t>
+  </si>
+  <si>
+    <t>Curricular units 1st sem (approved)</t>
+  </si>
+  <si>
+    <t>Curricular units 1st sem (grade)</t>
+  </si>
+  <si>
+    <t>Curricular units 1st sem (without evaluations)</t>
+  </si>
+  <si>
+    <t>Curricular units 2nd sem (credited)</t>
+  </si>
+  <si>
+    <t>Curricular units 2nd sem (enrolled)</t>
+  </si>
+  <si>
+    <t>Curricular units 2nd sem (evaluations)</t>
+  </si>
+  <si>
+    <t>Curricular units 2nd sem (approved)</t>
+  </si>
+  <si>
+    <t>Curricular units 2nd sem (grade)</t>
+  </si>
+  <si>
+    <t>Curricular units 2nd sem (without evaluations)</t>
+  </si>
+  <si>
+    <t>Unemployment rate</t>
+  </si>
+  <si>
+    <t>Inflation rate</t>
+  </si>
+  <si>
+    <t>Enrolled</t>
+  </si>
+  <si>
+    <t>Observation 184</t>
+  </si>
+  <si>
+    <t>Observation 221</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Change in course</t>
+  </si>
+  <si>
+    <t>1—1st phase—general contingent
+2—Ordinance No. 612/93
+3—1st phase—special contingent (Azores Island) 
+4—Holders of other higher courses
+5—Ordinance No. 854-B/99
+6—International student (bachelor)
+7—1st phase—special contingent (Madeira Island) 8—2nd phase—general contingent
+9—3rd phase—general contingent
+10—Ordinance No. 533-A/99, item b2) (Different Plan) 11—Ordinance No. 533-A/99, item b3 (Other Institution) 12—Over 23 years old
+13—Transfer
+14—Change in course
+15—Technological specialization diploma holders 16—Change in institution/course
+17—Short cycle diploma holders
+18—Change in institution/course (International)</t>
+  </si>
+  <si>
+    <t>Holders of other higher courses</t>
+  </si>
+  <si>
+    <t>first round of applications/first deadline</t>
+  </si>
+  <si>
+    <t>Management (evening attendance)</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>Secondary education</t>
+  </si>
+  <si>
+    <t>Higher education—degree (1st cycle)</t>
+  </si>
+  <si>
+    <t>Brazilian</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>General Course of Administration and Commerce</t>
+  </si>
+  <si>
+    <t>Basic education 1st cycle (4th/5th year) or equivalent</t>
+  </si>
+  <si>
+    <t>Unskilled Workers</t>
+  </si>
+  <si>
+    <t>Farmers and Skilled Workers in Agriculture, Fisheries,
+and Forestry</t>
+  </si>
+  <si>
+    <t>Installation and Machine Operators and Assembly Workers</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>not displaced</t>
+  </si>
+  <si>
+    <t>no educational special needs</t>
+  </si>
+  <si>
+    <t>no debtor</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>has tuition fees up to date</t>
+  </si>
+  <si>
+    <t>34 years old at time of enrollment</t>
+  </si>
+  <si>
+    <t>26 years old at time of enrollment</t>
+  </si>
+  <si>
+    <t>international student</t>
+  </si>
+  <si>
+    <t>domestic student</t>
+  </si>
+  <si>
+    <t>2 curricular units credited</t>
+  </si>
+  <si>
+    <t>3 curricular units credited</t>
+  </si>
+  <si>
+    <t>enrolled in 2 curricular units</t>
+  </si>
+  <si>
+    <t>enrolled in 5 curricular units</t>
+  </si>
+  <si>
+    <t>was evaluated in 2 curricular units</t>
+  </si>
+  <si>
+    <t>was evaluated in 5 curricular units</t>
+  </si>
+  <si>
+    <t>got 2 curricular units approved</t>
+  </si>
+  <si>
+    <t>got 5 curricular units approved</t>
+  </si>
+  <si>
+    <t>GPA of 10.5 in first semester</t>
+  </si>
+  <si>
+    <t>GPA of 14 in first semester</t>
+  </si>
+  <si>
+    <t>was not evaluated in 0 curricular units</t>
+  </si>
+  <si>
+    <t>1 curricular unit credited</t>
+  </si>
+  <si>
+    <t>enrolled in 1 curricular unit</t>
+  </si>
+  <si>
+    <t>was evaluated in 1 curricular unit</t>
+  </si>
+  <si>
+    <t>got 1 curricular unit approved</t>
+  </si>
+  <si>
+    <t>GPA of 11 in second semester</t>
+  </si>
+  <si>
+    <t>GPA of 15.6 in second semester</t>
+  </si>
+  <si>
+    <t>The unemployment rate was 10.8% at time of enrollment</t>
+  </si>
+  <si>
+    <t>The unemployment rate was 12.4% at time of enrollment</t>
+  </si>
+  <si>
+    <t>The inflation rate was 1.4% at time of enrollment</t>
+  </si>
+  <si>
+    <t>The inflation rate was 0.5% at time of enrollment</t>
+  </si>
+  <si>
+    <t>The GDP of Portugal was 174B USD at time of enrollment</t>
+  </si>
+  <si>
+    <t>The GDP of Portugal was 179B USD at time of enrollment</t>
+  </si>
+  <si>
+    <t>The student dropped out</t>
+  </si>
+  <si>
+    <t>The student graduated</t>
+  </si>
+  <si>
+    <t>Interpretation Observation 184</t>
+  </si>
+  <si>
+    <t>Interpretation Observation 221</t>
+  </si>
 </sst>
 </file>
 
@@ -807,7 +1057,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -867,9 +1117,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -877,14 +1127,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1185,22 +1441,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A8" zoomScale="87" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="137.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="137.6640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1231,7 +1487,7 @@
       <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1263,11 +1519,11 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="208" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>153</v>
       </c>
@@ -1295,8 +1551,8 @@
       <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>166</v>
+      <c r="J3" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="96" x14ac:dyDescent="0.2">
@@ -1327,8 +1583,8 @@
       <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>174</v>
+      <c r="J4" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="128" x14ac:dyDescent="0.2">
@@ -1359,8 +1615,8 @@
       <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="5" t="s">
-        <v>167</v>
+      <c r="J5" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1391,8 +1647,8 @@
       <c r="I6" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>172</v>
+      <c r="J6" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="249" customHeight="1" x14ac:dyDescent="0.2">
@@ -1423,8 +1679,8 @@
       <c r="I7" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>168</v>
+      <c r="J7" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="160" x14ac:dyDescent="0.2">
@@ -1455,7 +1711,7 @@
       <c r="I8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1487,8 +1743,8 @@
       <c r="I9" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>169</v>
+      <c r="J9" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1519,7 +1775,7 @@
       <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1549,8 +1805,8 @@
       <c r="I11" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>170</v>
+      <c r="J11" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1581,7 +1837,7 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1611,8 +1867,8 @@
       <c r="I13" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>173</v>
+      <c r="J13" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1643,8 +1899,8 @@
       <c r="I14" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="7" t="s">
-        <v>173</v>
+      <c r="J14" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -1675,8 +1931,8 @@
       <c r="I15" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>173</v>
+      <c r="J15" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1707,8 +1963,8 @@
       <c r="I16" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>173</v>
+      <c r="J16" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1739,8 +1995,8 @@
       <c r="I17" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>171</v>
+      <c r="J17" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1771,8 +2027,8 @@
       <c r="I18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="7" t="s">
-        <v>173</v>
+      <c r="J18" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1803,8 +2059,8 @@
       <c r="I19" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>175</v>
+      <c r="J19" s="4" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
@@ -1835,8 +2091,8 @@
       <c r="I20" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="7" t="s">
-        <v>173</v>
+      <c r="J20" s="4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
@@ -1867,8 +2123,8 @@
       <c r="I21" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="7" t="s">
-        <v>179</v>
+      <c r="J21" s="4" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -1899,8 +2155,8 @@
       <c r="I22" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>180</v>
+      <c r="J22" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -1931,8 +2187,8 @@
       <c r="I23" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>181</v>
+      <c r="J23" s="4" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
@@ -1963,8 +2219,8 @@
       <c r="I24" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>182</v>
+      <c r="J24" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
@@ -1995,8 +2251,8 @@
       <c r="I25" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>183</v>
+      <c r="J25" s="4" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -2027,8 +2283,8 @@
       <c r="I26" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="7" t="s">
-        <v>184</v>
+      <c r="J26" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
@@ -2059,8 +2315,8 @@
       <c r="I27" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>185</v>
+      <c r="J27" s="4" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -2091,8 +2347,8 @@
       <c r="I28" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="7" t="s">
-        <v>186</v>
+      <c r="J28" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
@@ -2123,8 +2379,8 @@
       <c r="I29" t="s">
         <v>14</v>
       </c>
-      <c r="J29" s="7" t="s">
-        <v>187</v>
+      <c r="J29" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
@@ -2155,8 +2411,8 @@
       <c r="I30" t="s">
         <v>11</v>
       </c>
-      <c r="J30" s="7" t="s">
-        <v>188</v>
+      <c r="J30" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2187,8 +2443,8 @@
       <c r="I31" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>189</v>
+      <c r="J31" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
@@ -2219,8 +2475,8 @@
       <c r="I32" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="7" t="s">
-        <v>190</v>
+      <c r="J32" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
@@ -2251,8 +2507,8 @@
       <c r="I33" t="s">
         <v>133</v>
       </c>
-      <c r="J33" s="7" t="s">
-        <v>176</v>
+      <c r="J33" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
@@ -2283,8 +2539,8 @@
       <c r="I34" t="s">
         <v>137</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>177</v>
+      <c r="J34" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
@@ -2315,8 +2571,8 @@
       <c r="I35" t="s">
         <v>143</v>
       </c>
-      <c r="J35" s="7" t="s">
-        <v>178</v>
+      <c r="J35" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
@@ -2347,4 +2603,1328 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE07756F-6B9D-4845-ADDD-086AA4836DA2}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="16384" width="10.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="3">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="3">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="3">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="3">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9" s="3">
+        <v>22</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="3">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="3">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="3">
+        <v>7</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="3">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="3">
+        <v>26</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="3">
+        <v>14</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="3">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D31" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="80" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4F6AF2-BE0F-F442-8389-953B3D907DBA}">
+  <dimension ref="A1:AI6"/>
+  <sheetViews>
+    <sheetView topLeftCell="Z2" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>34</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <v>2</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>10.5</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>11</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>10.8</v>
+      </c>
+      <c r="AG2">
+        <v>1.4</v>
+      </c>
+      <c r="AH2">
+        <v>1.74</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>41</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>3</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>12.33333333</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>11</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>12.4</v>
+      </c>
+      <c r="AG3">
+        <v>0.5</v>
+      </c>
+      <c r="AH3">
+        <v>1.79</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>43</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>13.875</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>12.5</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>11.1</v>
+      </c>
+      <c r="AG4">
+        <v>0.6</v>
+      </c>
+      <c r="AH4">
+        <v>2.02</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>27</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
+        <v>12.5</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>6</v>
+      </c>
+      <c r="AC5">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>12.5</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>12.7</v>
+      </c>
+      <c r="AG5">
+        <v>3.7</v>
+      </c>
+      <c r="AH5">
+        <v>-1.7</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6">
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>26</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>5</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+      <c r="X6">
+        <v>14</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>5</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+      <c r="AC6">
+        <v>5</v>
+      </c>
+      <c r="AD6">
+        <v>15.6</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>12.4</v>
+      </c>
+      <c r="AG6">
+        <v>0.5</v>
+      </c>
+      <c r="AH6">
+        <v>1.79</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>